--- a/data/수도권 전세가율 지도코드 데이터.xlsx
+++ b/data/수도권 전세가율 지도코드 데이터.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3E06C7-4473-4257-802A-2516838C9E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3EE556-569B-4A28-887B-3C225925FBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2715" yWindow="1215" windowWidth="10995" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -231,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인천동구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인천서구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,7 +268,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인천중구</t>
+    <t>인천동구1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천중구1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -713,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -730,7 +730,7 @@
         <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>53</v>
@@ -1164,7 +1164,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2">
         <v>67.3</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="2">
         <v>54.3</v>
@@ -1318,7 +1318,7 @@
         <v>23</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" s="2">
         <v>59.6</v>
@@ -1402,7 +1402,7 @@
         <v>23</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="2">
         <v>62.8</v>
@@ -1500,7 +1500,7 @@
         <v>23</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2">
         <v>65.400000000000006</v>
@@ -1514,7 +1514,7 @@
         <v>23</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2">
         <v>52.6</v>
@@ -1556,7 +1556,7 @@
         <v>23</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2">
         <v>57.8</v>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C64" s="2">
         <v>64.900000000000006</v>
@@ -1668,7 +1668,7 @@
         <v>45</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C68" s="2">
         <v>75.099999999999994</v>
@@ -1710,7 +1710,7 @@
         <v>45</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C71" s="2">
         <v>67.099999999999994</v>
